--- a/desafio4.xlsx
+++ b/desafio4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcpnedubo-my.sharepoint.com/personal/malvareza_fcpn_edu_bo/Documents/Documents/UMSA/2024-I/II-2024/sis-254/git/PropagacionDelError/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{236027F5-897F-4CA7-9E74-E1C42D2E6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF3E3C73-5910-499E-8B7C-850866185FE2}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{236027F5-897F-4CA7-9E74-E1C42D2E6DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4148054C-E132-435C-9574-675FD5EFAA98}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F163F5E-9B1B-40F8-AD7D-76329B5F140F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0F163F5E-9B1B-40F8-AD7D-76329B5F140F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>A</t>
   </si>
@@ -144,6 +144,39 @@
   </si>
   <si>
     <t>(-6/x^4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>q=(1(BH)^(5/3))/(n(B+2H)^(2/3))*sqrt(s)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>eQ=</t>
+  </si>
+  <si>
+    <t>Q - eQ=</t>
+  </si>
+  <si>
+    <t>Q + eQ=</t>
+  </si>
+  <si>
+    <t>se deberia intentar medir la pendiente para tener mejorar la precision</t>
   </si>
 </sst>
 </file>
@@ -509,8 +542,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>748</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733440</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76687</xdr:rowOff>
     </xdr:to>
@@ -537,6 +570,94 @@
         <a:xfrm>
           <a:off x="1495425" y="400050"/>
           <a:ext cx="5363323" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351692</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10980E0-0B40-8AC4-187B-CE18C916B7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1875692" y="5568463"/>
+          <a:ext cx="1179635" cy="573434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>659424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>718038</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FA81EA-9592-B847-EE65-C6524BD477BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2183424" y="6130766"/>
+          <a:ext cx="820614" cy="530986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B3D3-28C1-4DAD-8D3F-EB8CF5087300}">
   <dimension ref="I2:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +1113,9 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="O20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
@@ -1023,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799826F2-F042-406B-9022-1263F07BB3F8}">
   <dimension ref="C13:E35"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E35"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090770BF-737B-4D74-B279-6C74931F5753}">
   <dimension ref="C13:E40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1426,7 @@
       </c>
       <c r="D22">
         <f>D16+E23*D20</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
@@ -1314,8 +1437,8 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
+        <f>1/D15</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1447,7 @@
       </c>
       <c r="D24">
         <f>E23*D20</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
@@ -1338,7 +1461,7 @@
       </c>
       <c r="D26">
         <f>D22+E27/FACT(2)*(D18-D15)^2</f>
-        <v>-1.0249999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
@@ -1373,7 +1496,7 @@
       </c>
       <c r="D30">
         <f>D26+(E31/FACT(3))*(D18-D15)^3</f>
-        <v>0.10000000000000009</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
@@ -1408,7 +1531,7 @@
       </c>
       <c r="D34">
         <f>D30+(E35/FACT(4))*(D18-D15)^4</f>
-        <v>-1.1656249999999999</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
@@ -1429,7 +1552,7 @@
       </c>
       <c r="D36">
         <f>E35*D24</f>
-        <v>-0.60000000000000009</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
@@ -1441,7 +1564,7 @@
       </c>
       <c r="D39">
         <f>ABS(D19-D30)</f>
-        <v>0.81629073187415502</v>
+        <v>0.58370926812584489</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
@@ -1461,14 +1584,187 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372DB7F-A7F8-4EA7-97EB-0C8B04CE7723}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F23" s="2">
+        <f>10%*E23</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F26" s="2">
+        <f>10%*E26</f>
+        <v>2.9999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <f>(1*(E24*E25)^(5/3))/(E23*(E24+(2*E25))^(2/3))*SQRT(E26)</f>
+        <v>1.5221121162872076</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32">
+        <f>-(E24*E25*SQRT(E26)*(E24^2/3)*(E25^2/3))/((E23^2)*((E24+2*E25)^2/3))</f>
+        <v>-3.2652480112524787</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35">
+        <f>((E24*E25)^(5/3))/((2*E23)*SQRT(E26)*((E24+(2*E25))^(2/3)))</f>
+        <v>2536.8535271453461</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <f>E32*F23+E35*F26</f>
+        <v>6.6309861780602941E-2</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <f>+E29-E39</f>
+        <v>1.4558022545066045</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <f>+E29+E39</f>
+        <v>1.5884219780678106</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
